--- a/data/trans_orig/P2A_psíq_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4511</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11503</v>
+        <v>11325</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01652422642540582</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003716735968474866</v>
+        <v>0.003724231277267616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04213474811940384</v>
+        <v>0.04148173691221452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6542</v>
+        <v>8465</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00817001948735716</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02508237252276483</v>
+        <v>0.03245349213247922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>6642</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2679</v>
+        <v>2136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15224</v>
+        <v>14332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01244236180519218</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005019107221567964</v>
+        <v>0.004001839511658099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02851772291247934</v>
+        <v>0.02684599806452382</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>268499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261507</v>
+        <v>261685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271995</v>
+        <v>271993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9834757735745941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9578652518805962</v>
+        <v>0.9585182630877856</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9962832640315251</v>
+        <v>0.9962757687227325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -836,7 +836,7 @@
         <v>258707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>254296</v>
+        <v>252373</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>260838</v>
@@ -845,7 +845,7 @@
         <v>0.9918299805126428</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9749176274772349</v>
+        <v>0.9675465078675207</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>527206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518624</v>
+        <v>519516</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531169</v>
+        <v>531712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9875576381948078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9714822770875207</v>
+        <v>0.9731540019354762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.994980892778432</v>
+        <v>0.9959981604883419</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9367</v>
+        <v>9113</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005654733134184691</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01899682489204806</v>
+        <v>0.01848126677243523</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -982,19 +982,19 @@
         <v>15143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8171</v>
+        <v>8974</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24035</v>
+        <v>23960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03004769995752147</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01621444816942254</v>
+        <v>0.01780707415258814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04769294143199889</v>
+        <v>0.04754500837063762</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1003,19 +1003,19 @@
         <v>17931</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10724</v>
+        <v>11077</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28231</v>
+        <v>28824</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01798423634537255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01075587098830556</v>
+        <v>0.01111002163669008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02831532382862218</v>
+        <v>0.02891003732738359</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>490287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483708</v>
+        <v>483962</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>493075</v>
@@ -1041,7 +1041,7 @@
         <v>0.9943452668658153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810031751079524</v>
+        <v>0.9815187332275652</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>488806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479914</v>
+        <v>479989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>495778</v>
+        <v>494975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9699523000424786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9523070585680011</v>
+        <v>0.9524549916293624</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9837855518305775</v>
+        <v>0.9821929258474119</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>947</v>
@@ -1074,19 +1074,19 @@
         <v>979093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>968793</v>
+        <v>968200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>986300</v>
+        <v>985947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9820157636546275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9716846761713777</v>
+        <v>0.9710899626726164</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9892441290116945</v>
+        <v>0.9888899783633098</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7314</v>
+        <v>6412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006559467886757444</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02293742965917393</v>
+        <v>0.02010865159235659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1202,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7929</v>
+        <v>7381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006362038801811755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>1.666309870726021e-07</v>
+        <v>1.659401239414803e-07</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02363845334636917</v>
+        <v>0.0220065301898609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1220,19 +1220,19 @@
         <v>4225</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10758</v>
+        <v>10527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006458253849817005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001628462246751779</v>
+        <v>0.001629477588361079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01644330496924556</v>
+        <v>0.01609030219042405</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>316755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311532</v>
+        <v>312434</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9934405321132426</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9770625703408261</v>
+        <v>0.9798913484076435</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>333278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327483</v>
+        <v>328031</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>335412</v>
@@ -1279,10 +1279,10 @@
         <v>0.9936379611981883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9763615466536308</v>
+        <v>0.977993469810139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.999999833369013</v>
+        <v>0.999999834059876</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>640</v>
@@ -1291,19 +1291,19 @@
         <v>650033</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643500</v>
+        <v>643731</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653193</v>
+        <v>653192</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.993541746150183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9835566950307546</v>
+        <v>0.9839096978095762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9983715377532482</v>
+        <v>0.9983705224116389</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10790</v>
+        <v>11094</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01200042899463986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002980848157343249</v>
+        <v>0.002941583962373511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03008434450403388</v>
+        <v>0.03093120944310925</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1416,19 +1416,19 @@
         <v>2960</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7921</v>
+        <v>8207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00796752204400733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002472621956869178</v>
+        <v>0.002511019573463385</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0213234490704519</v>
+        <v>0.02209424167855772</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1437,19 +1437,19 @@
         <v>7264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2858</v>
+        <v>3251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15571</v>
+        <v>15639</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009948666513335444</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003914121429147297</v>
+        <v>0.004453317442398823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02132698835960923</v>
+        <v>0.02141923205702607</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>354367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>347881</v>
+        <v>347577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357602</v>
+        <v>357616</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9879995710053602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.969915655495966</v>
+        <v>0.969068790556891</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970191518426568</v>
+        <v>0.9970584160376265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>381</v>
@@ -1487,19 +1487,19 @@
         <v>368496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>363535</v>
+        <v>363249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370538</v>
+        <v>370523</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9920324779559927</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9786765509295482</v>
+        <v>0.9779057583214424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9975273780431309</v>
+        <v>0.9974889804265366</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>739</v>
@@ -1508,19 +1508,19 @@
         <v>722863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714556</v>
+        <v>714488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727269</v>
+        <v>726876</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9900513334866645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9786730116403887</v>
+        <v>0.9785807679429739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9960858785708526</v>
+        <v>0.9955466825576011</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7232</v>
+        <v>7408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01299030707461998</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003916018454961078</v>
+        <v>0.003980681184380597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03557198949700067</v>
+        <v>0.03643827314877387</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1633,19 +1633,19 @@
         <v>3263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8843</v>
+        <v>8806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01571207402471677</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004808581154445163</v>
+        <v>0.004839171387810101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04258411820425388</v>
+        <v>0.04240377899649179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1654,19 +1654,19 @@
         <v>5904</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2178</v>
+        <v>2483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12432</v>
+        <v>12707</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01436562786155389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005299685702403526</v>
+        <v>0.006041779645102838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0302491965061595</v>
+        <v>0.03092024030471751</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>200667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196076</v>
+        <v>195900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202512</v>
+        <v>202499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.98700969292538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9644280105029984</v>
+        <v>0.9635617268512257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.996083981545039</v>
+        <v>0.9960193188156193</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -1704,19 +1704,19 @@
         <v>204405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198825</v>
+        <v>198862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206669</v>
+        <v>206663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9842879259752833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9574158817957452</v>
+        <v>0.9575962210035082</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951914188455548</v>
+        <v>0.9951608286121899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -1725,19 +1725,19 @@
         <v>405072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>398544</v>
+        <v>398269</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408798</v>
+        <v>408493</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9856343721384461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9697508034938405</v>
+        <v>0.9690797596952825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9947003142975965</v>
+        <v>0.9939582203548972</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5273</v>
+        <v>4889</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003600364521677823</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01946989381148496</v>
+        <v>0.01805484997895102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4885</v>
+        <v>5332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001776135245643981</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008898730294801309</v>
+        <v>0.009712990348874314</v>
       </c>
     </row>
     <row r="20">
@@ -1892,7 +1892,7 @@
         <v>269836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265538</v>
+        <v>265922</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1901,7 +1901,7 @@
         <v>0.9963996354783222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9805301061885181</v>
+        <v>0.981945150021049</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>547980</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>544070</v>
+        <v>543623</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>548955</v>
@@ -1935,7 +1935,7 @@
         <v>0.998223864754356</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9911012697051987</v>
+        <v>0.990287009651124</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2030,19 +2030,19 @@
         <v>4612</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1765</v>
+        <v>1644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10429</v>
+        <v>9818</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007499002069625968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00286955584126119</v>
+        <v>0.002672827144353846</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01695676846514312</v>
+        <v>0.01596271660078805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2051,19 +2051,19 @@
         <v>4760</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10385</v>
+        <v>10782</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007457516410289241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002906440658471228</v>
+        <v>0.002893285963022818</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01627139358594403</v>
+        <v>0.01689325246205978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2072,19 +2072,19 @@
         <v>9372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4839</v>
+        <v>4727</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16986</v>
+        <v>16100</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007477875382036581</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00386154929728831</v>
+        <v>0.003771955125121882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01355338525063645</v>
+        <v>0.01284661991751791</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>610415</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>604598</v>
+        <v>605209</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>613262</v>
+        <v>613383</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9925009979303741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9830432315348568</v>
+        <v>0.9840372833992119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9971304441587387</v>
+        <v>0.9973271728556462</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>616</v>
@@ -2122,19 +2122,19 @@
         <v>633459</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>627834</v>
+        <v>627437</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>636364</v>
+        <v>636372</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9925424835897108</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.983728606414056</v>
+        <v>0.9831067475379404</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9970935593415288</v>
+        <v>0.9971067140369771</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1209</v>
@@ -2143,19 +2143,19 @@
         <v>1243874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1236260</v>
+        <v>1237146</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1248407</v>
+        <v>1248519</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9925221246179634</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.986446614749363</v>
+        <v>0.987153380082482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9961384507027115</v>
+        <v>0.9962280448748779</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>7818</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3417</v>
+        <v>3557</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15767</v>
+        <v>15956</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01051033043295923</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004593484834319547</v>
+        <v>0.00478183985292008</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02119779082585089</v>
+        <v>0.0214516359136682</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2268,19 +2268,19 @@
         <v>9086</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4179</v>
+        <v>3634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17503</v>
+        <v>18089</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01159667882407208</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005333679464878467</v>
+        <v>0.004637743196730629</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02233867096801448</v>
+        <v>0.02308719650111261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2289,19 +2289,19 @@
         <v>16904</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9804</v>
+        <v>9858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27256</v>
+        <v>27970</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01106762929182707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006419261714883643</v>
+        <v>0.006454507978979319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01784595535502409</v>
+        <v>0.01831327768740891</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>735977</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>728028</v>
+        <v>727839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>740378</v>
+        <v>740238</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9894896695670408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.978802209174149</v>
+        <v>0.9785483640863316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.99540651516568</v>
+        <v>0.9952181601470796</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>737</v>
@@ -2339,19 +2339,19 @@
         <v>774425</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>766008</v>
+        <v>765422</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>779332</v>
+        <v>779877</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9884033211759279</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9776613290319857</v>
+        <v>0.9769128034988848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9946663205351217</v>
+        <v>0.9953622568032691</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1466</v>
@@ -2360,19 +2360,19 @@
         <v>1510402</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1500050</v>
+        <v>1499336</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1517502</v>
+        <v>1517448</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.988932370708173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9821540446449759</v>
+        <v>0.981686722312591</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9935807382851164</v>
+        <v>0.9935454920210206</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>29741</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009076891393513425</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -2485,19 +2485,19 @@
         <v>39476</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01168194555370886</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>67</v>
@@ -2506,19 +2506,19 @@
         <v>69216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01039950783791335</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>3246802</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3234380</v>
+        <v>3233559</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3257850</v>
+        <v>3256880</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9909231086064866</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9871317531531463</v>
+        <v>0.9868813683951304</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9942947646835746</v>
+        <v>0.9939989667459381</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3258</v>
@@ -2556,19 +2556,19 @@
         <v>3339721</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3325227</v>
+        <v>3324775</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3351233</v>
+        <v>3350516</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9883180544462912</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9840286142422263</v>
+        <v>0.9838950513761708</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9917246818541876</v>
+        <v>0.9915124454065006</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6444</v>
@@ -2577,19 +2577,19 @@
         <v>6586525</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6567022</v>
+        <v>6568314</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6600943</v>
+        <v>6602718</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9896004921620867</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9866703500249402</v>
+        <v>0.9868644085328053</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9917668182714288</v>
+        <v>0.9920335519836774</v>
       </c>
     </row>
     <row r="30">
@@ -2925,19 +2925,19 @@
         <v>13037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6413</v>
+        <v>7115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22441</v>
+        <v>25013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04423228057948053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02175957755874955</v>
+        <v>0.02414005937283526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07613957353483247</v>
+        <v>0.08486634063299212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2946,19 +2946,19 @@
         <v>9560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4247</v>
+        <v>4044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17961</v>
+        <v>17679</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0332820150792744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0147864762888954</v>
+        <v>0.01407842525532114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06252805894299499</v>
+        <v>0.06154566209331003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2967,19 +2967,19 @@
         <v>22597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14032</v>
+        <v>13667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35591</v>
+        <v>34276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03882764015366086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02411136484461769</v>
+        <v>0.02348323757266784</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06115544149135082</v>
+        <v>0.05889573768574474</v>
       </c>
     </row>
     <row r="5">
@@ -2996,19 +2996,19 @@
         <v>281701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272297</v>
+        <v>269725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288325</v>
+        <v>287623</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9557677194205194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9238604264651675</v>
+        <v>0.9151336593670099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9782404224412503</v>
+        <v>0.975859940627165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -3017,19 +3017,19 @@
         <v>277685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269284</v>
+        <v>269566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282998</v>
+        <v>283201</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9667179849207256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9374719410570045</v>
+        <v>0.93845433790669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9852135237111028</v>
+        <v>0.9859215747446789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -3038,19 +3038,19 @@
         <v>559386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>546392</v>
+        <v>547707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>567951</v>
+        <v>568316</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9611723598463392</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9388445585086491</v>
+        <v>0.9411042623142549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9758886351553823</v>
+        <v>0.9765167624273321</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>6234</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15577</v>
+        <v>15280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01233142552637506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004044228922667873</v>
+        <v>0.004044397315857905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0308142911645641</v>
+        <v>0.03022544136061837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3163,19 +3163,19 @@
         <v>7193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3085</v>
+        <v>3052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15282</v>
+        <v>14375</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01373276288057235</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005890881182310588</v>
+        <v>0.005827044987842376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02917718599093472</v>
+        <v>0.02744578531802083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3184,19 +3184,19 @@
         <v>13427</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7183</v>
+        <v>7069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25426</v>
+        <v>23747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01304450915969558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006978900760798741</v>
+        <v>0.006868244609930625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02470271685994771</v>
+        <v>0.02307148252869852</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>499293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489950</v>
+        <v>490247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503483</v>
+        <v>503482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.987668574473625</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9691857088354359</v>
+        <v>0.9697745586393818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959557710773321</v>
+        <v>0.9959556026841421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -3234,19 +3234,19 @@
         <v>516572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>508483</v>
+        <v>509390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520680</v>
+        <v>520713</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9862672371194277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.970822814009065</v>
+        <v>0.9725542146819789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9941091188176894</v>
+        <v>0.9941729550121575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -3255,19 +3255,19 @@
         <v>1015865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1003866</v>
+        <v>1005545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1022109</v>
+        <v>1022223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9869554908403044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9752972831400518</v>
+        <v>0.9769285174713014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9930210992392012</v>
+        <v>0.9931317553900694</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         <v>9098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3062</v>
+        <v>3920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19763</v>
+        <v>21012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02807565525515964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009450420485978566</v>
+        <v>0.01209659291973533</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06098866488936817</v>
+        <v>0.06484162195276943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3380,19 +3380,19 @@
         <v>6923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14622</v>
+        <v>14099</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02030077931827131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007759023589215212</v>
+        <v>0.007787120627173091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04287838707437575</v>
+        <v>0.04134331363956874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3401,19 +3401,19 @@
         <v>16021</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8676</v>
+        <v>8442</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28524</v>
+        <v>28374</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02408900096850817</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01304587537994549</v>
+        <v>0.01269378391447845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04288883822176368</v>
+        <v>0.04266275069941849</v>
       </c>
     </row>
     <row r="11">
@@ -3430,19 +3430,19 @@
         <v>314948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304283</v>
+        <v>303034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320984</v>
+        <v>320126</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9719243447448404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9390113351106318</v>
+        <v>0.9351583780472335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905495795140214</v>
+        <v>0.9879034070802648</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -3451,19 +3451,19 @@
         <v>334097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326398</v>
+        <v>326921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338374</v>
+        <v>338364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9796992206817287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.957121612925624</v>
+        <v>0.9586566863604312</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9922409764107848</v>
+        <v>0.992212879372827</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -3472,19 +3472,19 @@
         <v>649045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>636542</v>
+        <v>636692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656390</v>
+        <v>656624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9759109990314918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9571111617782363</v>
+        <v>0.9573372493005815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9869541246200545</v>
+        <v>0.9873062160855215</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>4254</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1129</v>
+        <v>1064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10591</v>
+        <v>9662</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01137475943585985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003018335048793444</v>
+        <v>0.002845814116086877</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02831957421154677</v>
+        <v>0.02583629638948454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3597,19 +3597,19 @@
         <v>11639</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6592</v>
+        <v>5847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19712</v>
+        <v>19637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02992368368339853</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01694806197243508</v>
+        <v>0.01503360502779487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0506797702012252</v>
+        <v>0.0504865436599215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -3618,19 +3618,19 @@
         <v>15893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9680</v>
+        <v>10005</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24445</v>
+        <v>24799</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02083118812726601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01268840775015034</v>
+        <v>0.01311392056918588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03204080405853543</v>
+        <v>0.03250517931452948</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>369728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363391</v>
+        <v>364320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372853</v>
+        <v>372918</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9886252405641401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9716804257884533</v>
+        <v>0.9741637036105154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9969816649512065</v>
+        <v>0.9971541858839131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>359</v>
@@ -3668,19 +3668,19 @@
         <v>377312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369239</v>
+        <v>369314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382359</v>
+        <v>383104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9700763163166015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9493202297987747</v>
+        <v>0.9495134563400784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9830519380275649</v>
+        <v>0.9849663949722052</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -3689,19 +3689,19 @@
         <v>747040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738488</v>
+        <v>738134</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753253</v>
+        <v>752928</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.979168811872734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9679591959414645</v>
+        <v>0.9674948206854702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9873115922498497</v>
+        <v>0.9868860794308141</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>7501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2806</v>
+        <v>3165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14468</v>
+        <v>14594</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03528007321080352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01319850114001564</v>
+        <v>0.01488574841006396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06804921237730395</v>
+        <v>0.06863770846860498</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3814,19 +3814,19 @@
         <v>7419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2962</v>
+        <v>2885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14359</v>
+        <v>14459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03378576364078742</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01348884076533072</v>
+        <v>0.01313978935623009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06538889680788329</v>
+        <v>0.06584463689066171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3835,19 +3835,19 @@
         <v>14920</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8497</v>
+        <v>7920</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24646</v>
+        <v>24676</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03452086434911256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01965947765758027</v>
+        <v>0.01832535510902314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05702360467709863</v>
+        <v>0.05709162590045651</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>205117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198150</v>
+        <v>198024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209812</v>
+        <v>209453</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9647199267891965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9319507876226956</v>
+        <v>0.931362291531395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9868014988599844</v>
+        <v>0.985114251589936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -3885,19 +3885,19 @@
         <v>212172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205232</v>
+        <v>205132</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216629</v>
+        <v>216706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9662142363592126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9346111031921166</v>
+        <v>0.9341553631093382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865111592346693</v>
+        <v>0.9868602106437698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>394</v>
@@ -3906,19 +3906,19 @@
         <v>417289</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407563</v>
+        <v>407533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423712</v>
+        <v>424289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9654791356508874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9429763953229015</v>
+        <v>0.9429083740995435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9803405223424198</v>
+        <v>0.9816746448909769</v>
       </c>
     </row>
     <row r="18">
@@ -4010,19 +4010,19 @@
         <v>5011</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1915</v>
+        <v>1952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12046</v>
+        <v>11848</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01829124738330246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00698870352241446</v>
+        <v>0.007122794895257259</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04396507890144291</v>
+        <v>0.04324403895778977</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4031,19 +4031,19 @@
         <v>7116</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13723</v>
+        <v>14154</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02541252409373668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01091053059343828</v>
+        <v>0.01089458869281081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04900657770796649</v>
+        <v>0.05054284106631131</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -4052,19 +4052,19 @@
         <v>12128</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6919</v>
+        <v>6837</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20547</v>
+        <v>20453</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02189076908845447</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01248946139526472</v>
+        <v>0.0123404420902139</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03708790694621777</v>
+        <v>0.03691746504266785</v>
       </c>
     </row>
     <row r="20">
@@ -4081,19 +4081,19 @@
         <v>268970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261935</v>
+        <v>262133</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272066</v>
+        <v>272029</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9817087526166975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.956034921098557</v>
+        <v>0.9567559610422103</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930112964775856</v>
+        <v>0.9928772051047428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>262</v>
@@ -4102,19 +4102,19 @@
         <v>272915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266308</v>
+        <v>265877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276976</v>
+        <v>276980</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9745874759062633</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9509934222920334</v>
+        <v>0.9494571589336885</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9890894694065616</v>
+        <v>0.9891054113071891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>518</v>
@@ -4123,19 +4123,19 @@
         <v>541884</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>533465</v>
+        <v>533559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>547093</v>
+        <v>547175</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9781092309115456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9629120930537822</v>
+        <v>0.9630825349573325</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9875105386047354</v>
+        <v>0.9876595579097862</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>11260</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6090</v>
+        <v>6116</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19326</v>
+        <v>20109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01698907877560177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009187912317289522</v>
+        <v>0.009227044997977477</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0291592562052433</v>
+        <v>0.0303393189258515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4248,19 +4248,19 @@
         <v>9265</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4853</v>
+        <v>4242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17144</v>
+        <v>18182</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01335355469646885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006994544585520037</v>
+        <v>0.006113127289025086</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02470897489245822</v>
+        <v>0.02620485082017486</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4269,19 +4269,19 @@
         <v>20526</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11906</v>
+        <v>13059</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31624</v>
+        <v>30625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01512969286297054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008776308491243962</v>
+        <v>0.009626171205131082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02331067008058623</v>
+        <v>0.02257424634284886</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>651528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643462</v>
+        <v>642679</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>656698</v>
+        <v>656672</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9830109212243983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9708407437947565</v>
+        <v>0.9696606810741483</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9908120876827105</v>
+        <v>0.9907729550020222</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>627</v>
@@ -4319,19 +4319,19 @@
         <v>684588</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>676709</v>
+        <v>675671</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>689000</v>
+        <v>689611</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9866464453035312</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9752910251075408</v>
+        <v>0.9737951491798258</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9930054554144795</v>
+        <v>0.9938868727109751</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1234</v>
@@ -4340,19 +4340,19 @@
         <v>1336115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1325017</v>
+        <v>1326016</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1344735</v>
+        <v>1343582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9848703071370295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9766893299194137</v>
+        <v>0.9774257536571511</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9912236915087559</v>
+        <v>0.9903738287948687</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>7116</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2880</v>
+        <v>2950</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17337</v>
+        <v>16150</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009133499315159039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003696328396097533</v>
+        <v>0.003786958176061669</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02225238858130263</v>
+        <v>0.02072849979650365</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4465,19 +4465,19 @@
         <v>15099</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8301</v>
+        <v>8439</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25799</v>
+        <v>25163</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01832777423797842</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01007523313523042</v>
+        <v>0.01024315095096281</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03131513938513809</v>
+        <v>0.03054340937291715</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -4486,19 +4486,19 @@
         <v>22215</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13965</v>
+        <v>12852</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34541</v>
+        <v>33506</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01385898980767214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008711750760307625</v>
+        <v>0.008017732282389495</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02154826404683042</v>
+        <v>0.0209026253481856</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>771982</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>761761</v>
+        <v>762948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776218</v>
+        <v>776148</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9908665006848409</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9777476114186976</v>
+        <v>0.9792715002034967</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9963036716039024</v>
+        <v>0.9962130418239383</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>744</v>
@@ -4536,19 +4536,19 @@
         <v>808754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>798054</v>
+        <v>798690</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815552</v>
+        <v>815414</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9816722257620216</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9686848606148618</v>
+        <v>0.9694565906270828</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9899247668647695</v>
+        <v>0.9897568490490372</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1455</v>
@@ -4557,19 +4557,19 @@
         <v>1580736</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1568410</v>
+        <v>1569445</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1588986</v>
+        <v>1590099</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9861410101923278</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9784517359531694</v>
+        <v>0.9790973746518145</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9912882492396923</v>
+        <v>0.9919822677176103</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>63511</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>48484</v>
+        <v>49403</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80978</v>
+        <v>83681</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01853380618876922</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01414848680079595</v>
+        <v>0.01441671680108737</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02363104247314323</v>
+        <v>0.02441980234409478</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -4682,19 +4682,19 @@
         <v>74215</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>57485</v>
+        <v>57570</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>92778</v>
+        <v>92791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02085675847881449</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01615517333972397</v>
+        <v>0.01617893488136041</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02607362106024681</v>
+        <v>0.02607739144409229</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>124</v>
@@ -4703,19 +4703,19 @@
         <v>137726</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>112506</v>
+        <v>114068</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>160606</v>
+        <v>164095</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01971715309957937</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01610657048224176</v>
+        <v>0.01633018091644395</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02299264258588515</v>
+        <v>0.02349212333342974</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>3363268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3345801</v>
+        <v>3343098</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3378295</v>
+        <v>3377376</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9814661938112308</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9763689575268567</v>
+        <v>0.9755801976559053</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9858515131992041</v>
+        <v>0.9855832831989126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3229</v>
@@ -4753,19 +4753,19 @@
         <v>3484094</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3465531</v>
+        <v>3465518</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3500824</v>
+        <v>3500739</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9791432415211855</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9739263789397536</v>
+        <v>0.9739226085559071</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9838448266602764</v>
+        <v>0.9838210651186395</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6383</v>
@@ -4774,19 +4774,19 @@
         <v>6847362</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6824482</v>
+        <v>6820993</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6872582</v>
+        <v>6871020</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9802828469004207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9770073574141148</v>
+        <v>0.9765078766665701</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9838934295177583</v>
+        <v>0.983669819083556</v>
       </c>
     </row>
     <row r="30">
@@ -5122,19 +5122,19 @@
         <v>7112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2864</v>
+        <v>2820</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16337</v>
+        <v>15445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02420938362298367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009748218640209238</v>
+        <v>0.00960055643677373</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05561276911597312</v>
+        <v>0.05257603741888666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -5143,19 +5143,19 @@
         <v>5908</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2203</v>
+        <v>1943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13691</v>
+        <v>14318</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02046394036973118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007630949469782415</v>
+        <v>0.006731229754192305</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04742210573644171</v>
+        <v>0.04959536772446229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5164,19 +5164,19 @@
         <v>13020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6809</v>
+        <v>6715</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22268</v>
+        <v>22687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02235292433669163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01169030282568836</v>
+        <v>0.01152866806525017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03823131985424591</v>
+        <v>0.03895008462827149</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5193,19 @@
         <v>286649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277424</v>
+        <v>278316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290897</v>
+        <v>290941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9757906163770164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.944387230884027</v>
+        <v>0.9474239625811135</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9902517813597908</v>
+        <v>0.9903994435632263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>272</v>
@@ -5214,19 +5214,19 @@
         <v>282795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275012</v>
+        <v>274385</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286500</v>
+        <v>286760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9795360596302688</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9525778942635587</v>
+        <v>0.9504046322755375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9923690505302175</v>
+        <v>0.9932687702458077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -5235,19 +5235,19 @@
         <v>569444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560196</v>
+        <v>559777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575655</v>
+        <v>575749</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9776470756633083</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.961768680145754</v>
+        <v>0.9610499153717285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9883096971743117</v>
+        <v>0.9884713319347498</v>
       </c>
     </row>
     <row r="6">
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5631</v>
+        <v>5692</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002252599847604565</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0112048294176001</v>
+        <v>0.01132573123285249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5360,19 +5360,19 @@
         <v>5050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11479</v>
+        <v>11017</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009653818267180104</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003785632764377822</v>
+        <v>0.003812398292877803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02194495849725123</v>
+        <v>0.02106121813175851</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -5381,19 +5381,19 @@
         <v>6182</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2994</v>
+        <v>2721</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13042</v>
+        <v>13215</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006027204829488425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002918700884396018</v>
+        <v>0.002652634805366462</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01271545813517012</v>
+        <v>0.01288420587289458</v>
       </c>
     </row>
     <row r="8">
@@ -5410,7 +5410,7 @@
         <v>501443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496944</v>
+        <v>496883</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -5419,7 +5419,7 @@
         <v>0.9977474001523954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9887951705823999</v>
+        <v>0.9886742687671475</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5431,19 +5431,19 @@
         <v>518034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511605</v>
+        <v>512067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521104</v>
+        <v>521090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9903461817328199</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9780550415027487</v>
+        <v>0.9789387818682415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9962143672356222</v>
+        <v>0.9961876017071222</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>953</v>
@@ -5452,19 +5452,19 @@
         <v>1019477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1012617</v>
+        <v>1012444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1022665</v>
+        <v>1022938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9939727951705116</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9872845418648302</v>
+        <v>0.9871157941271055</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970812991156039</v>
+        <v>0.9973473651946371</v>
       </c>
     </row>
     <row r="9">
@@ -5569,19 +5569,19 @@
         <v>4089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1075</v>
+        <v>1232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10135</v>
+        <v>9450</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01215943160473009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003197010229206929</v>
+        <v>0.003664143772397447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03013465372304781</v>
+        <v>0.02809945726566996</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5590,19 +5590,19 @@
         <v>4089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>914</v>
+        <v>1081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9956</v>
+        <v>9730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006244447497280299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001395253939391723</v>
+        <v>0.001650727837229366</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0152032296483726</v>
+        <v>0.01485782486274666</v>
       </c>
     </row>
     <row r="11">
@@ -5632,19 +5632,19 @@
         <v>332220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326174</v>
+        <v>326859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335234</v>
+        <v>335077</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9878405683952699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9698653462769518</v>
+        <v>0.9719005427343298</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968029897707931</v>
+        <v>0.9963358562276026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>663</v>
@@ -5653,19 +5653,19 @@
         <v>650785</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644918</v>
+        <v>645144</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653960</v>
+        <v>653793</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9937555525027197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9847967703516277</v>
+        <v>0.9851421751372532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986047460606083</v>
+        <v>0.9983492721627706</v>
       </c>
     </row>
     <row r="12">
@@ -5757,19 +5757,19 @@
         <v>10204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4841</v>
+        <v>5273</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19777</v>
+        <v>18891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02758030520565519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01308470261556186</v>
+        <v>0.01425223368167458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05345750312173759</v>
+        <v>0.05106300268935272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5778,19 +5778,19 @@
         <v>16841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9907</v>
+        <v>9741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27276</v>
+        <v>26991</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04348387704381863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02558037194007346</v>
+        <v>0.02515105536644168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07042948503198659</v>
+        <v>0.06969428479362486</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -5799,19 +5799,19 @@
         <v>27044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17798</v>
+        <v>17072</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38911</v>
+        <v>38365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03571395648929789</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02350291018004889</v>
+        <v>0.02254458583471353</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05138467777630238</v>
+        <v>0.05066429353048833</v>
       </c>
     </row>
     <row r="14">
@@ -5828,19 +5828,19 @@
         <v>359760</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350187</v>
+        <v>351073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365123</v>
+        <v>364691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9724196947943448</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9465424968782624</v>
+        <v>0.9489369973106473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9869152973844382</v>
+        <v>0.9857477663183255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -5849,19 +5849,19 @@
         <v>370442</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360007</v>
+        <v>360292</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377376</v>
+        <v>377542</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9565161229561814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9295705149680129</v>
+        <v>0.9303057152063748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9744196280599265</v>
+        <v>0.9748489446335582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>687</v>
@@ -5870,19 +5870,19 @@
         <v>730203</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>718336</v>
+        <v>718882</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>739449</v>
+        <v>740175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9642860435107021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9486153222236976</v>
+        <v>0.9493357064695117</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9764970898199511</v>
+        <v>0.9774554141652865</v>
       </c>
     </row>
     <row r="15">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6861</v>
+        <v>5954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00903372040879425</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03248468066426372</v>
+        <v>0.028190503944108</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5995,19 +5995,19 @@
         <v>4086</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10337</v>
+        <v>9300</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01869311898222805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004401301846324793</v>
+        <v>0.004413449451629143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04729121815091545</v>
+        <v>0.04254593233239872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6016,19 +6016,19 @@
         <v>5994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2193</v>
+        <v>1979</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12207</v>
+        <v>11756</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01394619054551783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005101178765435482</v>
+        <v>0.004603397161388526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02840168059774248</v>
+        <v>0.02735225770712906</v>
       </c>
     </row>
     <row r="17">
@@ -6045,7 +6045,7 @@
         <v>209313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204360</v>
+        <v>205267</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -6054,7 +6054,7 @@
         <v>0.9909662795912058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9675153193357366</v>
+        <v>0.9718094960558918</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6066,19 +6066,19 @@
         <v>214501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208250</v>
+        <v>209287</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217625</v>
+        <v>217622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.981306881017772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9527087818490848</v>
+        <v>0.9574540676676011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955986981536752</v>
+        <v>0.9955865505483709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -6087,19 +6087,19 @@
         <v>423814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417601</v>
+        <v>418052</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427615</v>
+        <v>427829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9860538094544822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.971598319402258</v>
+        <v>0.972647742292871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9948988212345645</v>
+        <v>0.9953966028386115</v>
       </c>
     </row>
     <row r="18">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5337</v>
+        <v>5408</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003702712903190964</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02028499933077778</v>
+        <v>0.02055380825144534</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6212,19 +6212,19 @@
         <v>3197</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9200</v>
+        <v>8607</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01170610609045845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003368212329387172</v>
+        <v>0.003387579777099213</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03368710746300828</v>
+        <v>0.03151515833389854</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -6233,19 +6233,19 @@
         <v>4171</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1175</v>
+        <v>1073</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10143</v>
+        <v>9964</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007778975188574103</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002191515344738807</v>
+        <v>0.002001529417869635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01891517149735299</v>
+        <v>0.01858165489685135</v>
       </c>
     </row>
     <row r="20">
@@ -6262,7 +6262,7 @@
         <v>262149</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257786</v>
+        <v>257715</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -6271,7 +6271,7 @@
         <v>0.996297287096809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9797150006692206</v>
+        <v>0.9794461917485542</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -6283,19 +6283,19 @@
         <v>269918</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>263915</v>
+        <v>264508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272195</v>
+        <v>272190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9882938939095416</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9663128925369919</v>
+        <v>0.9684848416661016</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9966317876706129</v>
+        <v>0.9966124202229009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>518</v>
@@ -6304,19 +6304,19 @@
         <v>532067</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>526095</v>
+        <v>526274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>535063</v>
+        <v>535165</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9922210248114259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9810848285026472</v>
+        <v>0.9814183451031487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9978084846552612</v>
+        <v>0.9979984705821303</v>
       </c>
     </row>
     <row r="21">
@@ -6408,19 +6408,19 @@
         <v>3332</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9126</v>
+        <v>9741</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005075377462610384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001594479959864376</v>
+        <v>0.001613063278349668</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01390012366799424</v>
+        <v>0.01483711242527923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6429,19 +6429,19 @@
         <v>6184</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2023</v>
+        <v>2129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12705</v>
+        <v>12252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008945567064171262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002926719219753789</v>
+        <v>0.003079752501640939</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01837826075691969</v>
+        <v>0.01772371521465618</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -6450,19 +6450,19 @@
         <v>9516</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4467</v>
+        <v>5032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16734</v>
+        <v>17587</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007060342323085233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003313986582666786</v>
+        <v>0.003733010535742012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01241545447169979</v>
+        <v>0.01304845636542418</v>
       </c>
     </row>
     <row r="23">
@@ -6479,19 +6479,19 @@
         <v>653226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>647432</v>
+        <v>646817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655511</v>
+        <v>655499</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9949246225373897</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9860998763320057</v>
+        <v>0.9851628875747208</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984055200401356</v>
+        <v>0.9983869367216504</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>640</v>
@@ -6500,19 +6500,19 @@
         <v>685110</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>678589</v>
+        <v>679042</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>689271</v>
+        <v>689165</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9910544329358287</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9816217392430805</v>
+        <v>0.982276284785344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9970732807802463</v>
+        <v>0.9969202474983591</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1217</v>
@@ -6521,19 +6521,19 @@
         <v>1338336</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1331118</v>
+        <v>1330265</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1343385</v>
+        <v>1342820</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9929396576769147</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9875845455283001</v>
+        <v>0.9869515436345757</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9966860134173332</v>
+        <v>0.996266989464258</v>
       </c>
     </row>
     <row r="24">
@@ -6625,19 +6625,19 @@
         <v>7239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3181</v>
+        <v>3044</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14118</v>
+        <v>14739</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009297867344959635</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004085568910091002</v>
+        <v>0.003909112804369922</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01813241583317125</v>
+        <v>0.01893085728546886</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -6646,19 +6646,19 @@
         <v>11934</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5854</v>
+        <v>6140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21703</v>
+        <v>21857</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01444456972460258</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007086236377411403</v>
+        <v>0.007431653810020787</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02626966722766563</v>
+        <v>0.02645597780647201</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -6667,19 +6667,19 @@
         <v>19173</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11813</v>
+        <v>10785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29888</v>
+        <v>30118</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01194752347728939</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007361086610114339</v>
+        <v>0.006720945907686137</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01862471179653743</v>
+        <v>0.01876832132817564</v>
       </c>
     </row>
     <row r="26">
@@ -6696,19 +6696,19 @@
         <v>771344</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>764465</v>
+        <v>763844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775402</v>
+        <v>775539</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9907021326550404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9818675841668295</v>
+        <v>0.9810691427145316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9959144310899091</v>
+        <v>0.9960908871956301</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>745</v>
@@ -6717,19 +6717,19 @@
         <v>814233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>804464</v>
+        <v>804310</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820313</v>
+        <v>820027</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9855554302753974</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9737303327723345</v>
+        <v>0.973544022193528</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9929137636225885</v>
+        <v>0.9925683461899791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1488</v>
@@ -6738,19 +6738,19 @@
         <v>1585577</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1574862</v>
+        <v>1574632</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1592937</v>
+        <v>1593965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9880524765227107</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9813752882034628</v>
+        <v>0.9812316786718246</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9926389133898857</v>
+        <v>0.9932790540923139</v>
       </c>
     </row>
     <row r="27">
@@ -6842,19 +6842,19 @@
         <v>31901</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21892</v>
+        <v>22211</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45617</v>
+        <v>45394</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009398386170788718</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006449653830936497</v>
+        <v>0.006543443127661691</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01343922874201816</v>
+        <v>0.01337330100080003</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -6863,19 +6863,19 @@
         <v>57288</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43484</v>
+        <v>43116</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74414</v>
+        <v>75301</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01616244951944801</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01226777890256199</v>
+        <v>0.01216397157713051</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02099387039241698</v>
+        <v>0.02124415780359296</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>82</v>
@@ -6884,19 +6884,19 @@
         <v>89190</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>71530</v>
+        <v>69880</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>110204</v>
+        <v>109409</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01285362159469058</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01030852208111172</v>
+        <v>0.01007083777544465</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01588208482769213</v>
+        <v>0.01576749351607956</v>
       </c>
     </row>
     <row r="29">
@@ -6913,19 +6913,19 @@
         <v>3362449</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3348733</v>
+        <v>3348956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3372458</v>
+        <v>3372139</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9906016138292113</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9865607712579817</v>
+        <v>0.9866266989991999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9935503461690635</v>
+        <v>0.9934565568723384</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3286</v>
@@ -6934,19 +6934,19 @@
         <v>3487254</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3470128</v>
+        <v>3469241</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3501058</v>
+        <v>3501426</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.983837550480552</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.979006129607583</v>
+        <v>0.9787558421964071</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.987732221097438</v>
+        <v>0.9878360284228694</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6487</v>
@@ -6955,19 +6955,19 @@
         <v>6849702</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6828688</v>
+        <v>6829483</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6867362</v>
+        <v>6869012</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9871463784053094</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9841179151723076</v>
+        <v>0.9842325064839206</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9896914779188882</v>
+        <v>0.9899291622245554</v>
       </c>
     </row>
     <row r="30">
@@ -7303,19 +7303,19 @@
         <v>4537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1800</v>
+        <v>1535</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10582</v>
+        <v>10662</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01422875296993026</v>
+        <v>0.01422875296993027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005646464411523442</v>
+        <v>0.004814200503048796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03318967769397762</v>
+        <v>0.03343963523230043</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -7324,19 +7324,19 @@
         <v>7769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3715</v>
+        <v>3515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14987</v>
+        <v>16579</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02458076255156856</v>
+        <v>0.02458076255156857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01175433690030591</v>
+        <v>0.01112083943397197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04741937028461729</v>
+        <v>0.0524559883861845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -7345,19 +7345,19 @@
         <v>12306</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7329</v>
+        <v>6512</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20691</v>
+        <v>21092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01938205628687823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01154297703157629</v>
+        <v>0.01025619927848148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03258847031532863</v>
+        <v>0.03322054800546831</v>
       </c>
     </row>
     <row r="5">
@@ -7374,19 +7374,19 @@
         <v>314308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308263</v>
+        <v>308183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317045</v>
+        <v>317310</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9857712470300696</v>
+        <v>0.9857712470300698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9668103223060228</v>
+        <v>0.9665603647676991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9943535355884765</v>
+        <v>0.9951857994969511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>529</v>
@@ -7395,19 +7395,19 @@
         <v>308292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301074</v>
+        <v>299482</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312346</v>
+        <v>312546</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9754192374484314</v>
+        <v>0.9754192374484316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9525806297153836</v>
+        <v>0.9475440116138157</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9882456630996942</v>
+        <v>0.9888791605660283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>855</v>
@@ -7416,19 +7416,19 @@
         <v>622600</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614215</v>
+        <v>613814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>627577</v>
+        <v>628394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9806179437131218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9674115296846714</v>
+        <v>0.9667794519945316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9884570229684239</v>
+        <v>0.9897438007215186</v>
       </c>
     </row>
     <row r="6">
@@ -7520,19 +7520,19 @@
         <v>14220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7712</v>
+        <v>7254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25596</v>
+        <v>26677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0267971610322519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01453309724507265</v>
+        <v>0.01366997871374599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04823591500662465</v>
+        <v>0.05027308262338545</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -7541,19 +7541,19 @@
         <v>18192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11332</v>
+        <v>10832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30876</v>
+        <v>29120</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03328897453864275</v>
+        <v>0.03328897453864276</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02073534175968224</v>
+        <v>0.01982100365834569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05649842274883773</v>
+        <v>0.05328567313982247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -7562,19 +7562,19 @@
         <v>32412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22474</v>
+        <v>20830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47465</v>
+        <v>46488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03009082288094474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02086477001666101</v>
+        <v>0.01933851750221871</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04406615493114709</v>
+        <v>0.04315892723378</v>
       </c>
     </row>
     <row r="8">
@@ -7591,19 +7591,19 @@
         <v>516427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>505051</v>
+        <v>503970</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>522935</v>
+        <v>523393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9732028389677481</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9517640849933755</v>
+        <v>0.9497269173766145</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854669027549272</v>
+        <v>0.9863300212862538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>695</v>
@@ -7612,19 +7612,19 @@
         <v>528302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515618</v>
+        <v>517374</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>535162</v>
+        <v>535662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9667110254613571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9435015772511619</v>
+        <v>0.9467143268601773</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9792646582403176</v>
+        <v>0.9801789963416543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1066</v>
@@ -7633,19 +7633,19 @@
         <v>1044729</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1029676</v>
+        <v>1030653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1054667</v>
+        <v>1056311</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9699091771190552</v>
+        <v>0.9699091771190553</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9559338450688527</v>
+        <v>0.9568410727662204</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9791352299833388</v>
+        <v>0.9806614824977813</v>
       </c>
     </row>
     <row r="9">
@@ -7737,19 +7737,19 @@
         <v>7814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3938</v>
+        <v>3952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15927</v>
+        <v>15341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02472941512761328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01246307290406509</v>
+        <v>0.01250553932793259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05040368031821687</v>
+        <v>0.04854883427118509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -7758,19 +7758,19 @@
         <v>7787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4280</v>
+        <v>4035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13234</v>
+        <v>12963</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02184888430856898</v>
+        <v>0.02184888430856899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01200965045111687</v>
+        <v>0.01132088799862574</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0371334383099097</v>
+        <v>0.03637349820638914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -7779,19 +7779,19 @@
         <v>15601</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9997</v>
+        <v>9854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23221</v>
+        <v>24393</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02320263648884457</v>
+        <v>0.02320263648884456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01486855946161998</v>
+        <v>0.01465565027127614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03453579754574645</v>
+        <v>0.03627863243053317</v>
       </c>
     </row>
     <row r="11">
@@ -7808,19 +7808,19 @@
         <v>308179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300066</v>
+        <v>300652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312055</v>
+        <v>312041</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9752705848723868</v>
+        <v>0.9752705848723866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9495963196817829</v>
+        <v>0.9514511657288148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9875369270959348</v>
+        <v>0.9874944606720676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -7829,19 +7829,19 @@
         <v>348594</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>343147</v>
+        <v>343418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>352101</v>
+        <v>352346</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9781511156914312</v>
+        <v>0.978151115691431</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9628665616900902</v>
+        <v>0.9636265017936109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.987990349548883</v>
+        <v>0.9886791120013744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>874</v>
@@ -7850,19 +7850,19 @@
         <v>656774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649154</v>
+        <v>647982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662378</v>
+        <v>662521</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9767973635111556</v>
+        <v>0.9767973635111554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9654642024542541</v>
+        <v>0.9637213675694668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9851314405383805</v>
+        <v>0.9853443497287241</v>
       </c>
     </row>
     <row r="12">
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6390</v>
+        <v>6934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004766214195278036</v>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01712601721274561</v>
+        <v>0.01858289958630022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -7975,19 +7975,19 @@
         <v>6781</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3779</v>
+        <v>3711</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12556</v>
+        <v>11828</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01606950869513792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008954745182126743</v>
+        <v>0.008795363556707927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0297553096502699</v>
+        <v>0.02803018032182059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -7996,19 +7996,19 @@
         <v>8559</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4690</v>
+        <v>5013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14457</v>
+        <v>14637</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01076484865998259</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005898477070808084</v>
+        <v>0.006304364215972718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01818194722101442</v>
+        <v>0.01840837691132869</v>
       </c>
     </row>
     <row r="14">
@@ -8025,16 +8025,16 @@
         <v>371367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366755</v>
+        <v>366211</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.995233785804722</v>
+        <v>0.9952337858047221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9828739827872534</v>
+        <v>0.9814171004136997</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -8046,19 +8046,19 @@
         <v>415180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>409405</v>
+        <v>410133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418182</v>
+        <v>418250</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.983930491304862</v>
+        <v>0.9839304913048622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9702446903497285</v>
+        <v>0.9719698196781799</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9910452548178732</v>
+        <v>0.9912046364432922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>876</v>
@@ -8067,19 +8067,19 @@
         <v>786548</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>780650</v>
+        <v>780470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>790417</v>
+        <v>790094</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9892351513400175</v>
+        <v>0.9892351513400174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9818180527789863</v>
+        <v>0.9815916230886713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.994101522929192</v>
+        <v>0.9936956357840272</v>
       </c>
     </row>
     <row r="15">
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5334</v>
+        <v>5345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007412046905651982</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02593343207416829</v>
+        <v>0.02598849385979613</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3578</v>
+        <v>2817</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003943868377889737</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0156307064983307</v>
+        <v>0.01230581364346802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -8213,19 +8213,19 @@
         <v>2427</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>727</v>
+        <v>832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6196</v>
+        <v>6391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005585173022883646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001672051312626296</v>
+        <v>0.00191514703072232</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01425828831232517</v>
+        <v>0.01470577634088747</v>
       </c>
     </row>
     <row r="17">
@@ -8242,16 +8242,16 @@
         <v>204141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200331</v>
+        <v>200320</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9925879530943479</v>
+        <v>0.992587953094348</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9740665679258326</v>
+        <v>0.9740115061402039</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8263,7 +8263,7 @@
         <v>228015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>225340</v>
+        <v>226101</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>228918</v>
@@ -8272,7 +8272,7 @@
         <v>0.9960561316221104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9843692935016697</v>
+        <v>0.9876941863565319</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8284,19 +8284,19 @@
         <v>432155</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>428386</v>
+        <v>428191</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>433855</v>
+        <v>433750</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9944148269771164</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9857417116876753</v>
+        <v>0.9852942236591128</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9983279486873737</v>
+        <v>0.998084852969278</v>
       </c>
     </row>
     <row r="18">
@@ -8388,19 +8388,19 @@
         <v>9772</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5730</v>
+        <v>5149</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16820</v>
+        <v>16174</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03609875987429872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02116549819386555</v>
+        <v>0.01901923499504055</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0621318429263126</v>
+        <v>0.05974861649447036</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -8409,19 +8409,19 @@
         <v>10043</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6240</v>
+        <v>6445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15526</v>
+        <v>15804</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03807726821203783</v>
+        <v>0.03807726821203782</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02365694275892005</v>
+        <v>0.02443434973212858</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05886625267021055</v>
+        <v>0.05991964556931881</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -8430,19 +8430,19 @@
         <v>19815</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13904</v>
+        <v>13546</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27870</v>
+        <v>27864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03707513755642176</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02601452055653139</v>
+        <v>0.0253458716127495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05214620191469186</v>
+        <v>0.0521351638118876</v>
       </c>
     </row>
     <row r="20">
@@ -8459,19 +8459,19 @@
         <v>260935</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253887</v>
+        <v>254533</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264977</v>
+        <v>265558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9639012401257013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9378681570736871</v>
+        <v>0.9402513835055297</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9788345018061342</v>
+        <v>0.9809807650049595</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>439</v>
@@ -8480,19 +8480,19 @@
         <v>253707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248224</v>
+        <v>247946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257510</v>
+        <v>257305</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9619227317879624</v>
+        <v>0.9619227317879621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9411337473297895</v>
+        <v>0.9400803544306813</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9763430572410802</v>
+        <v>0.9755656502678715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>796</v>
@@ -8501,19 +8501,19 @@
         <v>514642</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506587</v>
+        <v>506593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520553</v>
+        <v>520911</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9629248624435782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9478537980853086</v>
+        <v>0.9478648361881127</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9739854794434685</v>
+        <v>0.9746541283872503</v>
       </c>
     </row>
     <row r="21">
@@ -8605,19 +8605,19 @@
         <v>25587</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16903</v>
+        <v>16031</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38699</v>
+        <v>39220</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03555347572195699</v>
+        <v>0.03555347572195698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02348682844092542</v>
+        <v>0.02227553244743007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05377233524796675</v>
+        <v>0.05449577278557617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -8626,19 +8626,19 @@
         <v>46388</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35316</v>
+        <v>35361</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59622</v>
+        <v>62368</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06008336070996258</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04574229720757138</v>
+        <v>0.04580054585860272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07722532071889236</v>
+        <v>0.08078148495836192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -8647,19 +8647,19 @@
         <v>71975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57117</v>
+        <v>56122</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89619</v>
+        <v>89667</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04824899593816377</v>
+        <v>0.04824899593816378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03828893488130741</v>
+        <v>0.0376218078319811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06007697949008296</v>
+        <v>0.06010889021408317</v>
       </c>
     </row>
     <row r="23">
@@ -8676,19 +8676,19 @@
         <v>694100</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>680988</v>
+        <v>680467</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>702784</v>
+        <v>703656</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9644465242780429</v>
+        <v>0.9644465242780431</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946227664752033</v>
+        <v>0.9455042272144241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9765131715590745</v>
+        <v>0.97772446755257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>902</v>
@@ -8697,19 +8697,19 @@
         <v>725669</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>712435</v>
+        <v>709689</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>736741</v>
+        <v>736696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9399166392900373</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9227746792811076</v>
+        <v>0.9192185150416381</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9542577027924285</v>
+        <v>0.9541994541413972</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1478</v>
@@ -8718,19 +8718,19 @@
         <v>1419769</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1402125</v>
+        <v>1402077</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1434627</v>
+        <v>1435622</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9517510040618361</v>
+        <v>0.9517510040618364</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9399230205099171</v>
+        <v>0.9398911097859168</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9617110651186926</v>
+        <v>0.9623781921680187</v>
       </c>
     </row>
     <row r="24">
@@ -8822,19 +8822,19 @@
         <v>15864</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9670</v>
+        <v>9086</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26073</v>
+        <v>25779</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01987821470755243</v>
+        <v>0.01987821470755242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01211619473268329</v>
+        <v>0.01138517037117483</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03267060696369287</v>
+        <v>0.03230191156781971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -8843,19 +8843,19 @@
         <v>16298</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10365</v>
+        <v>10441</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23744</v>
+        <v>24244</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01960489602412624</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01246798748530016</v>
+        <v>0.01255922609041524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02856153588337023</v>
+        <v>0.02916323853771445</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -8864,19 +8864,19 @@
         <v>32162</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22686</v>
+        <v>22381</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45058</v>
+        <v>46020</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01973876586089153</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01392293270108982</v>
+        <v>0.01373595083479219</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02765284150799841</v>
+        <v>0.02824361804283474</v>
       </c>
     </row>
     <row r="26">
@@ -8893,19 +8893,19 @@
         <v>782208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>771999</v>
+        <v>772293</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788402</v>
+        <v>788986</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9801217852924474</v>
+        <v>0.9801217852924475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9673293930363068</v>
+        <v>0.9676980884321796</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9878838052673162</v>
+        <v>0.988614829628825</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1040</v>
@@ -8914,19 +8914,19 @@
         <v>815033</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>807587</v>
+        <v>807087</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820966</v>
+        <v>820890</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9803951039758738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9714384641166294</v>
+        <v>0.9708367614622856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9875320125146996</v>
+        <v>0.9874407739095848</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1786</v>
@@ -8935,19 +8935,19 @@
         <v>1597241</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1584345</v>
+        <v>1583383</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1606717</v>
+        <v>1607022</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9802612341391084</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9723471584920015</v>
+        <v>0.9717563819571654</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9860770672989102</v>
+        <v>0.9862640491652079</v>
       </c>
     </row>
     <row r="27">
@@ -9039,19 +9039,19 @@
         <v>81098</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64675</v>
+        <v>62537</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103965</v>
+        <v>101049</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02295587409613958</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01830734087384408</v>
+        <v>0.01770195208783682</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02942885082304101</v>
+        <v>0.02860337970124353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>160</v>
@@ -9060,19 +9060,19 @@
         <v>114160</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>97112</v>
+        <v>96049</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>134355</v>
+        <v>132798</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.03054898305467278</v>
+        <v>0.03054898305467277</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02598682349423515</v>
+        <v>0.02570243198526822</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03595319962307084</v>
+        <v>0.03553649131119944</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>242</v>
@@ -9081,19 +9081,19 @@
         <v>195258</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>173127</v>
+        <v>170470</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>226119</v>
+        <v>223580</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02685906644448946</v>
+        <v>0.02685906644448947</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02381487431369245</v>
+        <v>0.02344928920123319</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03110430454993354</v>
+        <v>0.03075495177229562</v>
       </c>
     </row>
     <row r="29">
@@ -9110,19 +9110,19 @@
         <v>3451664</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3428797</v>
+        <v>3431713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3468087</v>
+        <v>3470225</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9770441259038606</v>
+        <v>0.9770441259038605</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9705711491769587</v>
+        <v>0.9713966202987564</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9816926591261556</v>
+        <v>0.9822980479121628</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5207</v>
@@ -9131,19 +9131,19 @@
         <v>3622794</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3602599</v>
+        <v>3604156</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3639842</v>
+        <v>3640905</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9694510169453275</v>
+        <v>0.9694510169453272</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9640468003769294</v>
+        <v>0.9644635086888002</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9740131765057651</v>
+        <v>0.9742975680147318</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8501</v>
@@ -9152,19 +9152,19 @@
         <v>7074458</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7043597</v>
+        <v>7046136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7096589</v>
+        <v>7099246</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9731409335555105</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9688956954500664</v>
+        <v>0.9692450482277039</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9761851256863076</v>
+        <v>0.9765507107987668</v>
       </c>
     </row>
     <row r="30">
